--- a/hyve-qa-auto/src/com/hyve/testData/hyve.testData.xlsx
+++ b/hyve-qa-auto/src/com/hyve/testData/hyve.testData.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -148,7 +148,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
@@ -401,29 +401,11 @@
   </cellStyleXfs>
   <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -435,15 +417,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -453,88 +426,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -542,95 +450,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -646,10 +479,177 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -745,6 +745,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -780,6 +797,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -935,424 +969,438 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="17.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="21.85546875" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="6" width="9.140625" style="1"/>
+    <col min="7" max="7" width="17.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="78" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="77"/>
-      <c r="F1" s="27" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="78" t="s">
+      <c r="B2" s="53"/>
+      <c r="C2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="77"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="79" t="s">
+      <c r="E2" s="53"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="80" t="s">
+      <c r="I2" s="53"/>
+      <c r="J2" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="80"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="4" t="s">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="45"/>
+      <c r="C6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="13">
+      <c r="E6" s="45"/>
+      <c r="F6" s="47">
         <v>42587</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="43" t="s">
+      <c r="G6" s="48"/>
+      <c r="H6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="82" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="82"/>
-      <c r="K8" s="82"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="87" t="s">
+      <c r="A9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="81" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="H9" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="84" t="s">
+      <c r="I9" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="18">
+      <c r="A10" s="9">
         <v>1</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="18">
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H10" s="85">
-        <v>123456</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="H10" s="26">
+        <v>1234567</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="18">
+      <c r="A11" s="9">
         <v>2</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="18">
+      <c r="B11" s="33"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="9">
         <v>2</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="18">
+      <c r="A12" s="9">
         <v>3</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="18">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="9">
         <v>3</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23" t="s">
+      <c r="C16" s="38"/>
+      <c r="D16" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="21" t="s">
+      <c r="E16" s="41"/>
+      <c r="F16" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="21" t="s">
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="22"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="18">
+      <c r="A18" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="36"/>
+      <c r="D18" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="31"/>
+      <c r="F18" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="19" t="s">
+      <c r="G18" s="34"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="3"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="35"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="18">
+      <c r="A19" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="27" t="s">
+      <c r="C19" s="32"/>
+      <c r="D19" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="27"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="19" t="s">
+      <c r="G19" s="34"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="3"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="35"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="18">
+      <c r="A20" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="29"/>
-      <c r="D20" s="27" t="s">
+      <c r="C20" s="32"/>
+      <c r="D20" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="19" t="s">
+      <c r="E20" s="31"/>
+      <c r="F20" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="19" t="s">
+      <c r="G20" s="34"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" s="3"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="35"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="18">
+      <c r="A21" s="9">
         <v>4</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="3"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="3"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="F8:K8"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="I16:K17"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="D16:E17"/>
+    <mergeCell ref="F16:H17"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:H23"/>
@@ -1365,6 +1413,13 @@
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:K21"/>
+    <mergeCell ref="F8:K8"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="F18:H18"/>
@@ -1374,27 +1429,6 @@
     <mergeCell ref="F19:H19"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:E17"/>
-    <mergeCell ref="F16:H17"/>
-    <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1414,260 +1448,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="43" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="43" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54" t="s">
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="57">
+      <c r="A9" s="20">
         <v>1</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="57">
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="20">
         <v>1</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="57">
+      <c r="A10" s="20">
         <v>2</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="57">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="20">
         <v>2</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="57">
+      <c r="A11" s="20">
         <v>3</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="57">
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20">
         <v>3</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="57">
+      <c r="A12" s="20">
         <v>4</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="57">
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20">
         <v>4</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="61" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="61" t="s">
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="66"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
       <c r="H17" s="74"/>
@@ -1676,109 +1710,105 @@
       <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:D12"/>
@@ -1788,26 +1818,30 @@
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1827,260 +1861,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="30" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="34"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="30" t="s">
+      <c r="B2" s="85"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="35" t="s">
+      <c r="E2" s="85"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="37"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="43" t="s">
+      <c r="B6" s="50"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="44"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="43" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54" t="s">
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="57">
+      <c r="A9" s="20">
         <v>1</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="57">
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="20">
         <v>1</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="57">
+      <c r="A10" s="20">
         <v>2</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="57">
+      <c r="B10" s="57"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="20">
         <v>2</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="59"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="57">
+      <c r="A11" s="20">
         <v>3</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="57">
+      <c r="B11" s="57"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="20">
         <v>3</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="59"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="57">
+      <c r="A12" s="20">
         <v>4</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="57">
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="20">
         <v>4</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="58"/>
+      <c r="K12" s="59"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63" t="s">
+      <c r="C16" s="63"/>
+      <c r="D16" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="61" t="s">
+      <c r="E16" s="67"/>
+      <c r="F16" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="65"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="61" t="s">
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="65"/>
-      <c r="K16" s="66"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="71"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="67"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
       <c r="F17" s="72"/>
       <c r="G17" s="73"/>
       <c r="H17" s="74"/>
@@ -2089,109 +2123,105 @@
       <c r="K17" s="74"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="34"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="34"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="34"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="34"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="34"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="G11:K11"/>
     <mergeCell ref="B12:D12"/>
@@ -2201,26 +2231,30 @@
     <mergeCell ref="D16:E17"/>
     <mergeCell ref="F16:H17"/>
     <mergeCell ref="I16:K17"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
